--- a/classfiers/nano/elm/smote/nano_elm_rbf_linf_smote_results.xlsx
+++ b/classfiers/nano/elm/smote/nano_elm_rbf_linf_smote_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9846153846153847</v>
+        <v>0.9836065573770492</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3062200956937799</v>
+        <v>0.3174603174603174</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4671532846715328</v>
+        <v>0.4799999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>0.894593521927987</v>
+        <v>0.8278562122783227</v>
       </c>
     </row>
     <row r="3">
@@ -485,13 +485,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3537735849056604</v>
+        <v>0.2834224598930482</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5226480836236934</v>
+        <v>0.4416666666666667</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8745591606418622</v>
+        <v>0.8558422459893048</v>
       </c>
     </row>
     <row r="4">
@@ -502,13 +502,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.301980198019802</v>
+        <v>0.3862433862433862</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4638783269961977</v>
+        <v>0.5572519083969465</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8884481082036775</v>
+        <v>0.9062850729517398</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3285714285714286</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4946236559139785</v>
+        <v>0.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8795855379188712</v>
+        <v>0.8290464743589743</v>
       </c>
     </row>
     <row r="6">
@@ -536,13 +536,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.353448275862069</v>
+        <v>0.2644230769230769</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5222929936305732</v>
+        <v>0.4182509505703422</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8778439388553145</v>
+        <v>0.8117882466695315</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9969230769230769</v>
+        <v>0.9967213114754099</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3287987166105479</v>
+        <v>0.3169765147706324</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4941192689671952</v>
+        <v>0.4794339051267911</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8830060535095425</v>
+        <v>0.8461636504495746</v>
       </c>
     </row>
   </sheetData>
